--- a/Excels/TLs_201812.xlsx
+++ b/Excels/TLs_201812.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jherrepe\Desktop\Pythonsnew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmartino\Desktop\BlackMargin\MarginBlack\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="13" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -767,9 +767,6 @@
     <t xml:space="preserve">Santiago Aguerri Aguado </t>
   </si>
   <si>
-    <t xml:space="preserve">EXT-000193-00907 </t>
-  </si>
-  <si>
     <t>Pool Visualización</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>Fabien Vignat</t>
+  </si>
+  <si>
+    <t>EXT-000193-00907</t>
   </si>
 </sst>
 </file>
@@ -3977,7 +3977,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4625,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>221</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>29</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>221</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>10</v>
@@ -5305,7 +5305,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" s="25">
         <v>119</v>
@@ -5365,7 +5365,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D37" s="25">
         <v>136</v>
@@ -5382,7 +5382,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>42</v>
@@ -5402,7 +5402,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>44</v>
@@ -5422,7 +5422,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>45</v>
@@ -5443,7 +5443,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>204</v>
@@ -5463,7 +5463,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>46</v>
@@ -5483,10 +5483,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>225</v>
       </c>
       <c r="D43" s="25">
         <v>128</v>
@@ -5506,7 +5506,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D44" s="25">
         <v>120</v>
@@ -5603,7 +5603,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>207</v>
@@ -5623,7 +5623,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>208</v>
@@ -5643,7 +5643,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>209</v>
@@ -5663,10 +5663,10 @@
         <v>57</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>227</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>228</v>
       </c>
       <c r="D52" s="25">
         <v>128</v>
@@ -5683,10 +5683,10 @@
         <v>57</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53" s="25">
         <v>78</v>
@@ -5703,10 +5703,10 @@
         <v>57</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D54" s="25">
         <v>104</v>
@@ -5723,7 +5723,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>59</v>
@@ -5743,7 +5743,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>60</v>
@@ -5763,7 +5763,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>61</v>
@@ -5783,10 +5783,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D58" s="25">
         <v>96</v>
@@ -5803,7 +5803,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>39</v>
@@ -5823,10 +5823,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60" s="25">
         <v>112</v>
@@ -5843,10 +5843,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D61" s="25">
         <v>120</v>
@@ -5984,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D68" s="25">
         <v>112</v>
@@ -6004,7 +6004,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D69" s="25">
         <v>128</v>
@@ -6024,7 +6024,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D70" s="25">
         <v>120</v>
@@ -6044,7 +6044,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D71" s="25">
         <v>112</v>
@@ -6064,7 +6064,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D72" s="25">
         <v>128</v>
@@ -6084,7 +6084,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D73" s="25">
         <v>40</v>
@@ -6122,7 +6122,7 @@
         <v>31</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D75" s="25">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>31</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D76" s="25">
         <v>72</v>
@@ -6162,7 +6162,7 @@
         <v>31</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D77" s="25">
         <v>88</v>
@@ -6202,7 +6202,7 @@
         <v>31</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79" s="25">
         <v>104</v>
@@ -6242,7 +6242,7 @@
         <v>31</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D81" s="25">
         <v>112</v>
@@ -6282,7 +6282,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="25">
         <v>128</v>
@@ -6342,7 +6342,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="25">
         <v>112</v>
@@ -6402,7 +6402,7 @@
         <v>54</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D89" s="25">
         <v>96</v>
@@ -6442,7 +6442,7 @@
         <v>63</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" s="25">
         <v>112</v>
@@ -6580,7 +6580,7 @@
         <v>37</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98" s="25">
         <v>112</v>
@@ -6617,7 +6617,7 @@
         <v>66</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>67</v>
@@ -6634,11 +6634,11 @@
     </row>
     <row r="101" spans="1:6" s="18" customFormat="1">
       <c r="A101" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D101" s="25">
         <v>136</v>
@@ -6655,10 +6655,10 @@
         <v>57</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D102" s="25">
         <v>128</v>
@@ -6678,7 +6678,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D103" s="25">
         <v>136</v>
@@ -6698,7 +6698,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D104" s="25">
         <v>112</v>
@@ -6718,7 +6718,7 @@
         <v>31</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D105" s="25">
         <v>112</v>
@@ -6738,7 +6738,7 @@
         <v>31</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D106" s="25">
         <v>88</v>
@@ -6758,7 +6758,7 @@
         <v>34</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D107" s="25">
         <v>136</v>
@@ -6778,7 +6778,7 @@
         <v>63</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D108" s="25">
         <v>128</v>
@@ -6798,7 +6798,7 @@
         <v>31</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109" s="25">
         <v>54</v>
@@ -9186,12 +9186,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9327,15 +9324,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6CEEDA-A7C8-4CA1-B28B-79033BB1D391}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E793575B-6FDB-4D0A-9D1A-F6633906D584}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5c0a092-86e7-4d19-9228-f591611b7342"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9359,17 +9367,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E793575B-6FDB-4D0A-9D1A-F6633906D584}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6CEEDA-A7C8-4CA1-B28B-79033BB1D391}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5c0a092-86e7-4d19-9228-f591611b7342"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excels/TLs_201812.xlsx
+++ b/Excels/TLs_201812.xlsx
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3977,7 +3977,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -4625,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5212,9 +5212,7 @@
       <c r="D29" s="25">
         <v>0</v>
       </c>
-      <c r="E29" s="27">
-        <v>0</v>
-      </c>
+      <c r="E29" s="27"/>
       <c r="F29" s="2">
         <v>201812</v>
       </c>
@@ -9186,9 +9184,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9324,26 +9325,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E793575B-6FDB-4D0A-9D1A-F6633906D584}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6CEEDA-A7C8-4CA1-B28B-79033BB1D391}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c5c0a092-86e7-4d19-9228-f591611b7342"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9367,9 +9357,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F6CEEDA-A7C8-4CA1-B28B-79033BB1D391}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E793575B-6FDB-4D0A-9D1A-F6633906D584}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c5c0a092-86e7-4d19-9228-f591611b7342"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>